--- a/reports/fruitTrees/wildcherry/wildcherry-ath_pss_no-orthologues_2025-09-15.xlsx
+++ b/reports/fruitTrees/wildcherry/wildcherry-ath_pss_no-orthologues_2025-09-15.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">NIMIN</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.1.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450'</t>
+    <t xml:space="preserve">26.11.3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450</t>
   </si>
   <si>
     <t xml:space="preserve">NIMIN1</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">D27</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9.1.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.strigolactone.biosynthesis.carotenoid isomerase *(DWARF27)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: carotenoid isomerase *(DWARF27) &amp; original description: | AT1G03055'</t>
+    <t xml:space="preserve">10.9.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.strigolactone.biosynthesis.carotenoid isomerase *(DWARF27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: carotenoid isomerase *(DWARF27) &amp; original description: | AT1G03055</t>
   </si>
   <si>
     <t xml:space="preserve">A. thaliana homolog of rice D27 | AtD27</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">AT1G09415</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G09415'</t>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G09415</t>
   </si>
   <si>
     <t xml:space="preserve">NIMIN-3</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">ARR-B</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4.2.1.3.2' | '14.5.3.2.8'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein' | 'RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190' | 'mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190'</t>
+    <t xml:space="preserve">10.4.2.1.3.2 | 14.5.3.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein | RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190</t>
   </si>
   <si>
     <t xml:space="preserve">RR19</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">BGLU18</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400'</t>
+    <t xml:space="preserve">50.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
   </si>
   <si>
     <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">SERK4</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3.2.1.2' | '18.4.1.2' | '26.11.1.1.1.2' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.brassinosteroid.perception and signal transduction.receptor complex.co-receptor protein kinase *(BAK/SERK)' | 'Protein modification.phosphorylation.TKL protein kinase activities.LRR-II protein kinase' | 'External stimuli response.pathogen.pattern-triggered immunity (PTI) machinery.bacterial elicitor response.FLS2-BAK1 flagellin receptor complex.co-receptor kinase component *(BAK1)' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: brassinosteroid co-receptor protein kinase *(BAK/SERK) &amp; original description: | AT2G13790' | 'mercator4v7.0: LRR-II protein kinase &amp; original description: | AT2G13790' | 'mercator4v7.0: co-receptor kinase component of FLS2-BAK1 flagellin receptor complex &amp; original description: | AT2G13790' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT2G13790'</t>
+    <t xml:space="preserve">10.3.2.1.2 | 18.4.1.2 | 26.11.1.1.1.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.brassinosteroid.perception and signal transduction.receptor complex.co-receptor protein kinase *(BAK/SERK) | Protein modification.phosphorylation.TKL protein kinase activities.LRR-II protein kinase | External stimuli response.pathogen.pattern-triggered immunity (PTI) machinery.bacterial elicitor response.FLS2-BAK1 flagellin receptor complex.co-receptor kinase component *(BAK1) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: brassinosteroid co-receptor protein kinase *(BAK/SERK) &amp; original description: | AT2G13790 | mercator4v7.0: LRR-II protein kinase &amp; original description: | AT2G13790 | mercator4v7.0: co-receptor kinase component of FLS2-BAK1 flagellin receptor complex &amp; original description: | AT2G13790 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT2G13790</t>
   </si>
   <si>
     <t xml:space="preserve">BRI1-  ASSOCIATED KINASE 7 | ATSERK4 | BAK1-LIKE 1 | SOMATIC EMBRYOGENESIS RECEPTOR-LIKE KINASE 4 | BAK7 | BKK1</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">PEP</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000'</t>
+    <t xml:space="preserve">26.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP6</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">LST8</t>
   </si>
   <si>
-    <t xml:space="preserve">27.10.1.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040'</t>
+    <t xml:space="preserve">27.10.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
   </si>
   <si>
     <t xml:space="preserve">LST8-2</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">PDF1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.3.3.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020'</t>
+    <t xml:space="preserve">26.11.3.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2b</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">CML12</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not assigned.not annotated'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100'</t>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not assigned.not annotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100</t>
   </si>
   <si>
     <t xml:space="preserve">TCH3</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">JR1</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
   </si>
   <si>
     <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">ETP</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
   </si>
   <si>
     <t xml:space="preserve">ETP2</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">AT3G18980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
   </si>
   <si>
     <t xml:space="preserve">ETP1</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">GAMT1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6.3.2' | '50.2.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT)' | 'Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420' | 'mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420'</t>
+    <t xml:space="preserve">10.6.3.2 | 50.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT) | Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420</t>
   </si>
   <si>
     <t xml:space="preserve">GAMT1</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">AT5G09976</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G09978</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
   </si>
   <si>
     <t xml:space="preserve">PEP7</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">AT5G09980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP4</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">AT5G09990</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP5</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">SAGs</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.2.1.4.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.effector-triggered immunity (ETI) machinery.TNL-mediated effector-triggered immunity.EDS1-PAD4/SAG101 signalling heterodimers.component *(SAG101)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: component *(SAG101) of EDS1-PAD4/SAG101 signalling heterodimers &amp; original description: | AT5G14930'</t>
+    <t xml:space="preserve">26.11.2.1.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.effector-triggered immunity (ETI) machinery.TNL-mediated effector-triggered immunity.EDS1-PAD4/SAG101 signalling heterodimers.component *(SAG101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: component *(SAG101) of EDS1-PAD4/SAG101 signalling heterodimers &amp; original description: | AT5G14930</t>
   </si>
   <si>
     <t xml:space="preserve">SAG101</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">AT5G44420</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420</t>
   </si>
   <si>
     <t xml:space="preserve">LCR77 | PDF1.2A | LOW-MOLECULAR-WEIGHT CYSTEINE-RICH 77 | PLANT DEFENSIN 1.2A</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">AT5G44430</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2c</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">AUX/IAA</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2.2.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.auxin.perception and signal transduction.transcriptional repressor *(IAA/AUX)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: transcriptional repressor *(IAA/AUX) &amp; original description: | AT5G57420'</t>
+    <t xml:space="preserve">10.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.auxin.perception and signal transduction.transcriptional repressor *(IAA/AUX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: transcriptional repressor *(IAA/AUX) &amp; original description: | AT5G57420</t>
   </si>
   <si>
     <t xml:space="preserve">IAA33</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">LECRK19</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4.1.19.2' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300'</t>
+    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
   </si>
   <si>
     <t xml:space="preserve">LecRK-I.9</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">AT5G64890</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP2</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">AT5G64900</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP1</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">AT5G64905</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP3</t>
@@ -497,15 +497,6 @@
     <t xml:space="preserve">RBC</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1.1.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photosynthesis.calvin cycle.ribulose-1,5-bisphosphat carboxylase/oxygenase (RuBisCo) activity.RuBisCo heterodimer.large subunit'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: large subunit of ribulose-1,5-bisphosphat carboxylase/oxygenase heterodimer &amp; original description: | ATCG00490'</t>
-  </si>
-  <si>
     <t xml:space="preserve">RBCL</t>
   </si>
   <si>
@@ -515,15 +506,6 @@
     <t xml:space="preserve">clpP1</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3.2.7.1.1' | '50.3.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.proteolysis.serine peptidase activities.chloroplast Clp-type protease complex.ClpP proteolytic core activities.proteolytic component *(ClpP1)' | 'Enzyme classification.EC_3 hydrolases.EC_3-4 hydrolase acting on peptide bond (peptidase)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: proteolytic component *(ClpP1) of chloroplast Clp-type protease complex &amp; original description: | ATCG00670' | 'mercator4v7.0: EC_3.4 hydrolase acting on peptide bond (peptidase) &amp; original description: | ATCG00670'</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCLPP</t>
   </si>
   <si>
@@ -534,15 +516,6 @@
   </si>
   <si>
     <t xml:space="preserve">psbB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.2.1.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photosynthesis.photophosphorylation.photosystem II.PS-II complex.reaction center complex.component *(CP47/PsbB)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: component *(PsbB/CP47) of PS-II reaction center complex &amp; original description: | ATCG00680'</t>
   </si>
   <si>
     <t xml:space="preserve">PSBB</t>
@@ -1700,67 +1673,49 @@
       <c r="C36" t="s">
         <v>160</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36" t="s">
         <v>161</v>
-      </c>
-      <c r="E36" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" t="s">
-        <v>164</v>
       </c>
       <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" t="s">
-        <v>169</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" t="s">
-        <v>176</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
       <c r="G38" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H38"/>
     </row>

--- a/reports/fruitTrees/wildcherry/wildcherry-ath_pss_no-orthologues_2025-09-15.xlsx
+++ b/reports/fruitTrees/wildcherry/wildcherry-ath_pss_no-orthologues_2025-09-15.xlsx
@@ -23,6 +23,12 @@
     <t xml:space="preserve">short_name</t>
   </si>
   <si>
+    <t xml:space="preserve">athName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">athSynonims</t>
+  </si>
+  <si>
     <t xml:space="preserve">ath_BINCODE</t>
   </si>
   <si>
@@ -32,10 +38,232 @@
     <t xml:space="preserve">ath_DESCRIPTION</t>
   </si>
   <si>
-    <t xml:space="preserve">athName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">athSynonims</t>
+    <t xml:space="preserve">AT1G49190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Cytokinins (CK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR19 | response regulator 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4.2.1.3.2 | 14.5.3.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein | RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G57420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Auxins (AUX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX/IAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAA33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.auxin.perception and signal transduction.transcriptional repressor *(IAA/AUX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: transcriptional repressor *(IAA/AUX) &amp; original description: | AT5G57420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G52400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Abscisic acid (ABA),Stress - Drought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGLU18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G41100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signalling - Calcium,Hormone - Auxins (AUX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CML12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CML12 | ATCAL4 | calmodulin-like 12 | ARABIDOPSIS THALIANA CALMODULIN LIKE 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not assigned.not annotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G03055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Strigolactones (SL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. thaliana homolog of rice D27 | AtD27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.strigolactone.biosynthesis.carotenoid isomerase *(DWARF27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: carotenoid isomerase *(DWARF27) &amp; original description: | AT1G03055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G18910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Ethylene (ET)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G26420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Gibberellin (GA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMT1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6.3.2 | 50.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT) | Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G16470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Jasmonate (JA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G60300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signalling - Perception and resistance genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LECRK19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LecRK-I.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not Respond to Nucleotides 1 | DORN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G22040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary metabolism - Photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LST8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LST8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.10.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G38325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation - Silencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIR390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G58465</t>
   </si>
   <si>
     <t xml:space="preserve">AT1G02450</t>
@@ -47,6 +275,12 @@
     <t xml:space="preserve">NIMIN</t>
   </si>
   <si>
+    <t xml:space="preserve">NIMIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIMIN-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">26.11.3.1.5</t>
   </si>
   <si>
@@ -56,315 +290,219 @@
     <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450</t>
   </si>
   <si>
-    <t xml:space="preserve">NIMIN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIMIN-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT1G03055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Strigolactones (SL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.strigolactone.biosynthesis.carotenoid isomerase *(DWARF27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: carotenoid isomerase *(DWARF27) &amp; original description: | AT1G03055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. thaliana homolog of rice D27 | AtD27</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT1G09415</t>
   </si>
   <si>
+    <t xml:space="preserve">NIMIN-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G09415</t>
   </si>
   <si>
-    <t xml:space="preserve">NIMIN-3</t>
+    <t xml:space="preserve">AT2G26020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF1.2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.11.3.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G44420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCR77 | PDF1.2A | LOW-MOLECULAR-WEIGHT CYSTEINE-RICH 77 | PLANT DEFENSIN 1.2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G44430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF1.2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G22000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Peptides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G09976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G09978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G09980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G09990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G64890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G64900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPTIDE 1 | ARABIDOPSIS THALIANA PEPTIDE 1 | PEP1 | ATPEP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G64905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCG00490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G14930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAG101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.11.2.1.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.effector-triggered immunity (ETI) machinery.TNL-mediated effector-triggered immunity.EDS1-PAD4/SAG101 signalling heterodimers.component *(SAG101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: component *(SAG101) of EDS1-PAD4/SAG101 signalling heterodimers &amp; original description: | AT5G14930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G13790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRI1-  ASSOCIATED KINASE 7 | ATSERK4 | BAK1-LIKE 1 | SOMATIC EMBRYOGENESIS RECEPTOR-LIKE KINASE 4 | BAK7 | BKK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3.2.1.2 | 18.4.1.2 | 26.11.1.1.1.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.brassinosteroid.perception and signal transduction.receptor complex.co-receptor protein kinase *(BAK/SERK) | Protein modification.phosphorylation.TKL protein kinase activities.LRR-II protein kinase | External stimuli response.pathogen.pattern-triggered immunity (PTI) machinery.bacterial elicitor response.FLS2-BAK1 flagellin receptor complex.co-receptor kinase component *(BAK1) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: brassinosteroid co-receptor protein kinase *(BAK/SERK) &amp; original description: | AT2G13790 | mercator4v7.0: LRR-II protein kinase &amp; original description: | AT2G13790 | mercator4v7.0: co-receptor kinase component of FLS2-BAK1 flagellin receptor complex &amp; original description: | AT2G13790 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT2G13790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G49615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCG00670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clpP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCLPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASEINOLYTIC PROTEASE P 1 | CLPP1</t>
   </si>
   <si>
     <t xml:space="preserve">AT1G18075</t>
   </si>
   <si>
-    <t xml:space="preserve">Regulation - Silencing</t>
-  </si>
-  <si>
     <t xml:space="preserve">miR159AB</t>
   </si>
   <si>
-    <t xml:space="preserve">AT1G49190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Cytokinins (CK)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARR-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4.2.1.3.2 | 14.5.3.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein | RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RR19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARR19 | response regulator 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT1G52400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Abscisic acid (ABA),Stress - Drought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGLU18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT1G73687</t>
   </si>
   <si>
-    <t xml:space="preserve">AT2G13790</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SERK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3.2.1.2 | 18.4.1.2 | 26.11.1.1.1.2 | 50.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.brassinosteroid.perception and signal transduction.receptor complex.co-receptor protein kinase *(BAK/SERK) | Protein modification.phosphorylation.TKL protein kinase activities.LRR-II protein kinase | External stimuli response.pathogen.pattern-triggered immunity (PTI) machinery.bacterial elicitor response.FLS2-BAK1 flagellin receptor complex.co-receptor kinase component *(BAK1) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: brassinosteroid co-receptor protein kinase *(BAK/SERK) &amp; original description: | AT2G13790 | mercator4v7.0: LRR-II protein kinase &amp; original description: | AT2G13790 | mercator4v7.0: co-receptor kinase component of FLS2-BAK1 flagellin receptor complex &amp; original description: | AT2G13790 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT2G13790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRI1-  ASSOCIATED KINASE 7 | ATSERK4 | BAK1-LIKE 1 | SOMATIC EMBRYOGENESIS RECEPTOR-LIKE KINASE 4 | BAK7 | BKK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G22000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Peptides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G22040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary metabolism - Photosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LST8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.10.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LST8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G26020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Ethylene (ET)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDF1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.11.3.3.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDF1.2b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G38325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIR390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G41100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signalling - Calcium,Hormone - Auxins (AUX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CML12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not assigned.not annotated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CML12 | ATCAL4 | calmodulin-like 12 | ARABIDOPSIS THALIANA CALMODULIN LIKE 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G16470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Jasmonate (JA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G17185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G18910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G18980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT4G19395</t>
   </si>
   <si>
     <t xml:space="preserve">miR168</t>
   </si>
   <si>
-    <t xml:space="preserve">AT4G26420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Gibberellin (GA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMT1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6.3.2 | 50.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT) | Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEP7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP5</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT5G14545</t>
   </si>
   <si>
@@ -372,144 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">miR398b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G14930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAGs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.11.2.1.4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.effector-triggered immunity (ETI) machinery.TNL-mediated effector-triggered immunity.EDS1-PAD4/SAG101 signalling heterodimers.component *(SAG101)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: component *(SAG101) of EDS1-PAD4/SAG101 signalling heterodimers &amp; original description: | AT5G14930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAG101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G44420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCR77 | PDF1.2A | LOW-MOLECULAR-WEIGHT CYSTEINE-RICH 77 | PLANT DEFENSIN 1.2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G44430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDF1.2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G49615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G57420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Auxins (AUX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUX/IAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.auxin.perception and signal transduction.transcriptional repressor *(IAA/AUX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: transcriptional repressor *(IAA/AUX) &amp; original description: | AT5G57420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAA33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G58465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G60300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signalling - Perception and resistance genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LECRK19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LecRK-I.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does not Respond to Nucleotides 1 | DORN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G64890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G64900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPTIDE 1 | ARABIDOPSIS THALIANA PEPTIDE 1 | PEP1 | ATPEP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G64905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATCG00490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATCG00670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clpP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCLPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASEINOLYTIC PROTEASE P 1 | CLPP1</t>
   </si>
   <si>
     <t xml:space="preserve">ATCG00680</t>
@@ -572,11 +572,11 @@
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="all_pathways"/>
     <tableColumn id="3" name="short_name"/>
-    <tableColumn id="4" name="ath_BINCODE"/>
-    <tableColumn id="5" name="ath_NAME"/>
-    <tableColumn id="6" name="ath_DESCRIPTION"/>
-    <tableColumn id="7" name="athName"/>
-    <tableColumn id="8" name="athSynonims"/>
+    <tableColumn id="4" name="athName"/>
+    <tableColumn id="5" name="athSynonims"/>
+    <tableColumn id="6" name="ath_BINCODE"/>
+    <tableColumn id="7" name="ath_NAME"/>
+    <tableColumn id="8" name="ath_DESCRIPTION"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -932,14 +932,12 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3"/>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -950,216 +948,236 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4"/>
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8"/>
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
       <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10"/>
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11"/>
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12"/>
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1169,393 +1187,413 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" t="s">
         <v>82</v>
       </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
         <v>89</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E17"/>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17"/>
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18"/>
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
         <v>98</v>
       </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20"/>
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21"/>
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
         <v>108</v>
       </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E22"/>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22"/>
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>112</v>
       </c>
-      <c r="G23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23"/>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24"/>
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25"/>
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
       <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26"/>
+        <v>112</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E27"/>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" t="s">
-        <v>131</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
       <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29"/>
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
       <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30"/>
+        <v>149</v>
+      </c>
+      <c r="H30" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -1565,158 +1603,120 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" t="s">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" t="s">
-        <v>151</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
       <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" t="s">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" t="s">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
       <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36" t="s">
-        <v>161</v>
-      </c>
+      <c r="G36"/>
       <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" t="s">
-        <v>164</v>
-      </c>
-      <c r="H37" t="s">
-        <v>165</v>
-      </c>
+      <c r="G37"/>
+      <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>166</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>167</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" t="s">
+        <v>168</v>
+      </c>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" t="s">
-        <v>168</v>
-      </c>
+      <c r="G38"/>
       <c r="H38"/>
     </row>
   </sheetData>
